--- a/biology/Microbiologie/Rhodothermota/Rhodothermota.xlsx
+++ b/biology/Microbiologie/Rhodothermota/Rhodothermota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Rhodothermota représentent un phylum de bactéries monotypique en 2022 jusqu'à l'ordre Rhodothermales qui comprend quatre familles. Ce phylum comprend la classe Rhodothermia.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ordre des Rhodothermota a d'abord été décrit en 2016 sous le nom de Rhodothermaeota par Munoz et al. mais cette publication n'a pas été publiée de manière valide[2]. En 2019, c'est au tour de Garcia-Lopez et al. de proposer un nouveau nom, Rhodothermota, mais là aussi la publication n'a pas été effectuée selon les critères de validité de l'ICSP. Ce n'est qu'en 2021, que ce nouveau nom est validé en même temps que la publication de 41 autres phylum bactériens par Oren et Garrity tout en maintenant l'autorité de nomenclature à Munoz mais assorti de la date de 2021[3],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre des Rhodothermota a d'abord été décrit en 2016 sous le nom de Rhodothermaeota par Munoz et al. mais cette publication n'a pas été publiée de manière valide. En 2019, c'est au tour de Garcia-Lopez et al. de proposer un nouveau nom, Rhodothermota, mais là aussi la publication n'a pas été effectuée selon les critères de validité de l'ICSP. Ce n'est qu'en 2021, que ce nouveau nom est validé en même temps que la publication de 41 autres phylum bactériens par Oren et Garrity tout en maintenant l'autorité de nomenclature à Munoz mais assorti de la date de 2021,.
 </t>
         </is>
       </c>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie du phylum Rhodothermota est la suivante : Rho.do.ther.mo’ta N.L. masc. n. Rhodothermus, genre type du phylum; N.L. neut. pl. n. suff. -ota, suffixe utilisé pour désigner un phylum; N.L. neut. pl. n. Rhodothermota, le phylum des Rhodothermus[3],[2].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du phylum Rhodothermota est la suivante : Rho.do.ther.mo’ta N.L. masc. n. Rhodothermus, genre type du phylum; N.L. neut. pl. n. suff. -ota, suffixe utilisé pour désigner un phylum; N.L. neut. pl. n. Rhodothermota, le phylum des Rhodothermus,.
 </t>
         </is>
       </c>
@@ -574,9 +593,11 @@
           <t>Liste des classes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Actuellement, selon la LPSN  (18 novembre 2022)[4], les Rhodothermota ne comptent qu'une seule classe. Lors de sa description, elle en a compté deux jusqu'à la transformation de la famille Balneolaceae en phylum Balneolaeota[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Actuellement, selon la LPSN  (18 novembre 2022), les Rhodothermota ne comptent qu'une seule classe. Lors de sa description, elle en a compté deux jusqu'à la transformation de la famille Balneolaceae en phylum Balneolaeota.
 Rhodothermia Munoz et al. 2017</t>
         </is>
       </c>
